--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19073.29490807663</v>
+        <v>56961.6251765994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8543982.18440106</v>
+        <v>8569234.711474907</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>316.1747230569731</v>
       </c>
       <c r="D2" t="n">
-        <v>133.1477187035941</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>166.636196498458</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>95.29602472536796</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.68781459557032</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>183.0693744584394</v>
+        <v>39.88277234054592</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>97.06811543402061</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>404.9349489747401</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>53.90045570694564</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>36.35162337426241</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.43430199953193</v>
       </c>
       <c r="V11" t="n">
-        <v>348.0223489661736</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,25 +1528,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>126.7641785672304</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.30461838026</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>132.7957673084556</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776672</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>166.3197703738368</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586654</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>101.0430753545952</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>28.46824604904501</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>134.7806822622879</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283471</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.84692347866412</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225759</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225763</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225824</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>129.5445345985668</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888141</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>15.57230972412465</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,7 +3187,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>31.24391673888135</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>161.6379250432767</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015912</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>24.62703520776683</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225779</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.0567773522577</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>155.2022955251537</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545.2299034413993</v>
+        <v>453.9064388152829</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1278346652267</v>
+        <v>134.5380316870272</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>102.6686509018758</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>72.934310100575</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>656.8099308587483</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1264.51257716731</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1264.51257716731</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1264.51257716731</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>2112.490051010193</v>
       </c>
       <c r="V2" t="n">
-        <v>991.6923035150976</v>
+        <v>2112.490051010193</v>
       </c>
       <c r="W2" t="n">
-        <v>990.8772529665349</v>
+        <v>1707.634596421227</v>
       </c>
       <c r="X2" t="n">
-        <v>571.7347895458456</v>
+        <v>1288.492133000537</v>
       </c>
       <c r="Y2" t="n">
-        <v>567.4890698859031</v>
+        <v>880.2060093001907</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>446.7326829940189</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>936.2947751752459</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>763.7330636584709</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>597.8550708599936</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2063.487540453622</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423964</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512708</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2106.385647110225</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2106.385647110225</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1819.430138980656</v>
       </c>
       <c r="W4" t="n">
-        <v>1600.924819246712</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="X4" t="n">
-        <v>1355.533064580125</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>1128.113393894233</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y5" t="n">
-        <v>247.1005396616621</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.6348259499213</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>675.0731144331462</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>509.1951216346689</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>339.4371178854062</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1512.264870021388</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1266.8731153548</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1039.453444668908</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715259</v>
+        <v>2139.946552541567</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953533</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020183</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890106</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851286</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851286</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105273</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105273</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105273</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105273</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105273</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.39000687349</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172586</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925643</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798682</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115698</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>996.6902930495248</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>591.8348384605581</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>182.8096374759722</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160296</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230039</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897045</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842794</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543886</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536193</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>777.390391755142</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058792</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676354</v>
+        <v>247.7482955927446</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851286</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851286</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264739</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255704</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683215</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908996</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925643</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631015</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631015</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.178951631015</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1817.178951631015</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1817.178951631015</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789382</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111516</v>
@@ -5045,13 +5045,13 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
         <v>3292.83610851071</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112633</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.8119928040993</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>656.767367988715</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>490.8893751902377</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>490.8893751902377</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111516</v>
@@ -5203,7 +5203,7 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
         <v>1335.767865365814</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230865</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5288,16 +5288,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3726.452252901472</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3307.309789480783</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5443,7 +5443,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.424181364463</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.30874198473</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168153</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342598</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101005</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>199.2164785333644</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
         <v>97.15276605397517</v>
@@ -5522,43 +5522,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.229814098728</v>
+        <v>965.4711828007302</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819531</v>
+        <v>792.9094712839551</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834758</v>
+        <v>627.0314784854779</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>627.0314784854779</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583903</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503607</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177151</v>
+        <v>1157.289801519717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4764.22618407731</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>965.4711828007308</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>792.9094712839558</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>627.0314784854785</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>457.2734747362157</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5664206979719</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>114.9751457237996</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5917,7 +5917,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285906</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.70947220561</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519718</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2642.287896536275</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2396.40845011473</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903951</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736201</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751428</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258802</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876364</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134647</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2150.393015473604</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1591.411102930326</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085203</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6661,10 +6661,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292022</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>645.8766848899145</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>476.1186811406517</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>299.4116271024079</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>133.8203521282355</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6886,22 +6886,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903948</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736197</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258797</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7175,49 +7175,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.754677688392</v>
+        <v>1041.416826573036</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716169</v>
+        <v>868.8551150562605</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>702.9771222577833</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085205</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7421,19 +7421,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7546,13 +7546,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
         <v>267.852115244952</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004224</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7655,43 +7655,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>754.219347342084</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.163014580405</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7807,7 +7807,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>479.9987875054326</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351055</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314107</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706692</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428933</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10838,7 +10838,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>185.1957776566213</v>
       </c>
       <c r="V11" t="n">
-        <v>10.96843159933814</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.07191583437687</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.73195639979866</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>268.0111327346214</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>185.1957776566207</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>139.5921776627251</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>40.15930123557345</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.96843159933724</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627257</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.446375214271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>113.8761173587625</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>227.365527395797</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>107.2592358276479</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>81.78272691405263</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,13 +26071,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>734923.7852361959</v>
+        <v>742699.1973575457</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734923.7852361959</v>
+        <v>744900.9868823298</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>736374.0290616899</v>
+        <v>744900.9868823298</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721397.9728903894</v>
+        <v>721397.9728903895</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751841.791700832</v>
+        <v>751841.7917008318</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751841.7917008321</v>
+        <v>751841.791700832</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751841.7917008318</v>
+        <v>751841.791700832</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26320,19 @@
         <v>227862.6109534237</v>
       </c>
       <c r="E2" t="n">
-        <v>214847.6566379625</v>
+        <v>214847.6566379624</v>
       </c>
       <c r="F2" t="n">
         <v>214847.6566379625</v>
       </c>
       <c r="G2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="H2" t="n">
-        <v>214847.6566379626</v>
+        <v>214847.6566379624</v>
       </c>
       <c r="I2" t="n">
-        <v>223914.4732583748</v>
+        <v>223914.4732583747</v>
       </c>
       <c r="J2" t="n">
         <v>223914.4732583748</v>
@@ -26347,7 +26347,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="O2" t="n">
         <v>223914.4732583747</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720031</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510244</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742622</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966614</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
         <v>52352.49019908698</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908699</v>
+        <v>52352.490199087</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26451,7 +26451,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="O4" t="n">
         <v>54561.82510962276</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846977</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167450.1574946731</v>
+        <v>-206891.1642828836</v>
       </c>
       <c r="C6" t="n">
-        <v>-25258.85683496316</v>
+        <v>-11700.65222802966</v>
       </c>
       <c r="D6" t="n">
-        <v>-31749.35206371054</v>
+        <v>5639.892145876816</v>
       </c>
       <c r="E6" t="n">
-        <v>-134823.4695907989</v>
+        <v>-72835.8096036832</v>
       </c>
       <c r="F6" t="n">
-        <v>88975.82416122797</v>
+        <v>88899.26560643119</v>
       </c>
       <c r="G6" t="n">
-        <v>88975.82416122803</v>
+        <v>88899.26560643116</v>
       </c>
       <c r="H6" t="n">
-        <v>88975.82416122803</v>
+        <v>88899.2656064311</v>
       </c>
       <c r="I6" t="n">
-        <v>73269.69391012</v>
+        <v>73246.46957073727</v>
       </c>
       <c r="J6" t="n">
-        <v>-19380.05580203066</v>
+        <v>-68996.64428203655</v>
       </c>
       <c r="K6" t="n">
-        <v>91634.40954295947</v>
+        <v>77797.17663573183</v>
       </c>
       <c r="L6" t="n">
-        <v>82686.79845444925</v>
+        <v>91611.18520357684</v>
       </c>
       <c r="M6" t="n">
-        <v>-95156.57706750772</v>
+        <v>-43378.75940942652</v>
       </c>
       <c r="N6" t="n">
-        <v>91634.40954295942</v>
+        <v>91611.18520357693</v>
       </c>
       <c r="O6" t="n">
-        <v>91634.40954295947</v>
+        <v>91611.18520357678</v>
       </c>
       <c r="P6" t="n">
-        <v>91634.40954295942</v>
+        <v>91611.18520357678</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314107</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130639</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130639</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130639</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>117.5863250314378</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>298.4029682737058</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>76.78445545887124</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>174.0101156442034</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.3487601844884</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.23676591113201</v>
+        <v>229.4233680290255</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,73 +27853,73 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>336.6929326543903</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10.01608981174235</v>
-      </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>110.034906517485</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>232.954516995309</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>479.9987875054326</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34860,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351055</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314107</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706692</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314107</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428933</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814543</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37558,7 +37558,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
